--- a/prueba_url.xlsx
+++ b/prueba_url.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na_zh\OneDrive\Escritorio\Scraper Linkedin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\na_zh\OneDrive\Escritorio\prueba_aider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C053996E-207F-460C-AFBA-3E0DF3BEDD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC23D50-60B9-4857-A0E8-24623BC2BB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6C08868B-78A9-47D0-9E69-0838901E6B2F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Nombre</t>
   </si>
@@ -47,19 +47,22 @@
     <t>URL</t>
   </si>
   <si>
-    <t xml:space="preserve">Nicolas </t>
-  </si>
-  <si>
-    <t>Ainstein</t>
-  </si>
-  <si>
-    <t>Ignacio</t>
+    <t>https://www.linkedin.com/in/cristian-canales-benitez-6a28a614/</t>
+  </si>
+  <si>
+    <t>Cristian</t>
+  </si>
+  <si>
+    <t>SETRAM</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>AINSTEIN</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/nicolassanhueza/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/ignacio-pincheira-lagos/</t>
   </si>
 </sst>
 </file>
@@ -131,7 +134,7 @@
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{205F622E-609D-4563-8249-54921CF4A8E6}" name="Nombre"/>
     <tableColumn id="2" xr3:uid="{022958D9-5C7C-4C7B-8B4A-0E4E7A583A1A}" name="Empresa"/>
-    <tableColumn id="3" xr3:uid="{A8C682E3-F7C4-471D-ADBE-9980D01708E2}" name="URL"/>
+    <tableColumn id="3" xr3:uid="{A8C682E3-F7C4-471D-ADBE-9980D01708E2}" name="URL" dataCellStyle="Hipervínculo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,7 +465,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,30 +481,30 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{2FD269FF-21BD-4CBA-B4F0-7945766BA26A}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{10583729-71DD-4F21-A5F3-FB7C151B0D2B}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{B962169F-69A6-479B-AB11-9A29B1B97E9E}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{FAA1E053-3E72-43B0-977F-89063F9F6BF9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
